--- a/src/main/resources/excel文件/特殊字符.xlsx
+++ b/src/main/resources/excel文件/特殊字符.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="489">
   <si>
     <t>编码范围</t>
   </si>
@@ -2459,10 +2459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2852,17 +2852,115 @@
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
+        <v>110</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>111</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>112</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>113</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>155</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>156</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>157</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>161</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>483</v>
       </c>
     </row>
@@ -2878,8 +2976,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:D162"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A114" sqref="A111:XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4428,59 +4526,59 @@
         <v>328</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+    <row r="111" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+    <row r="112" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+    <row r="113" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+    <row r="114" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5058,45 +5156,45 @@
         <v>462</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+    <row r="156" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+    <row r="157" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+    <row r="158" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="5" t="s">
         <v>471</v>
       </c>
     </row>

--- a/src/main/resources/excel文件/特殊字符.xlsx
+++ b/src/main/resources/excel文件/特殊字符.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gityy\task1\yylanguagedistinguish\src\main\resources\excel文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\识别语言\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="489">
   <si>
     <t>编码范围</t>
   </si>
@@ -2459,10 +2459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2504,464 +2504,618 @@
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>216</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>219</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>225</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>234</v>
+        <v>215</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>237</v>
+        <v>218</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="6" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>243</v>
+        <v>224</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>246</v>
+        <v>227</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>249</v>
+        <v>230</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>261</v>
+        <v>242</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="6" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>267</v>
+        <v>248</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>270</v>
+        <v>251</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>276</v>
+        <v>257</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="6" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>282</v>
+        <v>263</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="6" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>333</v>
+        <v>275</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="6" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>464</v>
+        <v>284</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>465</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>467</v>
+        <v>290</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>468</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>469</v>
+        <v>320</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>470</v>
+        <v>321</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>471</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
+        <v>110</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>111</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>112</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>113</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>128</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>144</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>151</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>155</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>156</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>157</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>161</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>162</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -2976,8 +3130,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A114" sqref="A111:XFD114"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3017,44 +3171,44 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3073,30 +3227,30 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3953,30 +4107,30 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="5" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4345,16 +4499,16 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="5" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4779,16 +4933,16 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="5" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5003,16 +5157,16 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+      <c r="A145" s="5">
         <v>144</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="5" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5101,16 +5255,16 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="5" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5255,16 +5409,16 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="5" t="s">
         <v>486</v>
       </c>
     </row>

--- a/src/main/resources/excel文件/特殊字符.xlsx
+++ b/src/main/resources/excel文件/特殊字符.xlsx
@@ -5,22 +5,23 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\识别语言\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gityy\task1\yylanguagedistinguish\src\main\resources\excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="特殊字符" sheetId="3" r:id="rId1"/>
     <sheet name="unicode第一平面字符对应表" sheetId="2" r:id="rId2"/>
+    <sheet name="特殊字符 (2)" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="489">
   <si>
     <t>编码范围</t>
   </si>
@@ -2461,8 +2462,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5427,4 +5428,853 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>CONCATENATE("""",B2,"""",":","""",C2,"""",",")</f>
+        <v>"0080-00FF":"拉丁文-1补充",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E46" si="0">CONCATENATE("""",B3,"""",":","""",C3,"""",",")</f>
+        <v>"0100-017F":"拉丁文扩展-A",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"0180-024F":"拉丁文扩展-B",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"02B0-02FF":"占位修饰符号",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"0300-036F":"结合附加符号",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"1DC0-1DFF":"结合附加符号补充",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"1E00-1EFF":"拉丁文扩展附加",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>72</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2000-206F":"常用标点",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>73</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2070-209F":"上标及下标",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>74</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"20A0-20CF":"货币符号",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>75</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"20D0-20FF":"组合用记号",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>76</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2100-214F":"字母式符号",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>77</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2150-218F":"数字形式",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>78</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2190-21FF":"箭头",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>79</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2200-22FF":"数学运算符",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>80</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2300-23FF":"杂项工业符号",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>81</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2400-243F":"控制图片",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>82</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2440-245F":"光学识别符",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>83</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2460-24FF":"带圈字母和数字",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>84</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2500-257F":"制表符",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2580-259F":"方块元素",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>86</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"25A0-25FF":"几何图形",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2600-26FF":"杂项符号",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>88</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2700-27BF":"装饰符号",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="6" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>89</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"27C0-27EF":"杂项数学符号-A",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>90</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"27F0-27FF":"追加箭头-A",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>91</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2800-28FF":"盲文点字模型",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>92</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2900-297F":"追加箭头-B",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="6" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>93</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2980-29FF":"杂项数学符号-B",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>94</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2A00-2AFF":"追加数学运算符",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>95</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2B00-2BFF":"杂项符号和箭头",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>97</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"2C60-2C7F":"拉丁文扩展-C",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>107</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"3000-303F":"中日韩符号和标点",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>110</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"3100-312F":"注音符号",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>111</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"3130-318F":"谚文兼容字母",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>112</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"3190-319F":"汉文注释标志",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>113</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"31A0-31BF":"注音字母扩展",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>128</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"A720-A7FF":"拉丁文扩展-D",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>144</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"AB30-AB6F":"拉丁文扩展-E",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>151</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"E000-F8FF":"私用区",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>155</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"FE00-FE0F":"异体字选择符",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>156</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"FE10-FE1F":"竖排形式",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>157</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"FE20-FE2F":"组合用半符号",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>161</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"FF00-FFEF":"半角及全角字符",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>162</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>"FFF0-FFFF":"特殊",</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>